--- a/6/cfrp1/danmen=70/6_cfrp1_danmen=70_SS.xlsx
+++ b/6/cfrp1/danmen=70/6_cfrp1_danmen=70_SS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management-3dPrinter/6/cfrp1/danmen=70/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978F12DC-DCB2-0A4C-BDFC-96679C5D9628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8289A0A-F65C-6946-9732-6947CBB41A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="19960" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7600" yWindow="4880" windowWidth="19960" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -538,7 +538,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>6_c1_dan70_th2.0</a:t>
+              <a:t>10%</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -564,10 +564,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'6_c1_dan70_th2.0'!$C$2:$C$101</c:f>
+              <c:f>'6_c1_dan70_th1.73'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -594,588 +594,42 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.2499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.7499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5000000000000009E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.749999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.4999999999999989E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.7499999999999991E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.2499999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.4999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.7500000000000017E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.025E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.0749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.175E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.225E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.4749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.525E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.55E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.575E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.6250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.6500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.6750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.7250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.7500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.7749999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.8249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.8499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.8749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.925E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.95E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.975E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.0250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.0750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.1250000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.1499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.1749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.1999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.2249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.2499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.4750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6_c1_dan70_th2.0'!$D$2:$D$101</c:f>
+              <c:f>'6_c1_dan70_th1.73'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.15215</c:v>
+                  <c:v>0.92801285714285708</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3043</c:v>
+                  <c:v>1.8560285714285709</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4564571428571429</c:v>
+                  <c:v>2.784042857142857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6086</c:v>
+                  <c:v>3.7120571428571432</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7607571428571429</c:v>
+                  <c:v>4.6400714285714288</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9128999999999996</c:v>
+                  <c:v>5.568085714285715</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0650571428571425</c:v>
+                  <c:v>6.496085714285714</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.2172000000000001</c:v>
+                  <c:v>7.4241000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.36935714285714</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.5215</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.67365714285714</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13.825799999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14.978</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.130142857142861</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.28228571428571</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.434428571428569</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.586571428571428</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.738714285714291</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>21.89085714285714</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>23.042999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>24.195142857142859</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>25.347285714285711</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>26.49942857142857</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>27.65157142857143</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>28.803714285714289</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>29.955857142857141</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>31.108000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>32.26014285714286</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>33.412285714285723</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>34.564571428571433</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>35.716714285714289</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>36.868857142857138</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>38.020999999999987</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>39.173142857142857</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>40.325285714285712</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>41.477428571428582</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>42.629571428571431</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43.78171428571428</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44.933857142857143</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>46.085999999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>47.238142857142861</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>48.390285714285717</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>49.542428571428573</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>50.694571428571429</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>51.846428571428568</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>52.998142857142852</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>54.149571428571427</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>55.301571428571428</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>56.453714285714291</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>57.60585714285714</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>58.758000000000003</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>59.910142857142858</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>61.062285714285707</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>62.214285714285722</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>63.366428571428557</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>64.518571428571434</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>65.670714285714283</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>66.822857142857146</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>67.974999999999994</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>69.12700000000001</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>70.279142857142858</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>71.431285714285707</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>16.353999999999999</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>16.61814285714286</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>16.864571428571431</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>17.065857142857141</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>16.962714285714291</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>15.09414285714286</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>10.692257142857139</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6.3109428571428579</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>3.340357142857143</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.524885714285714</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.6790428571428571</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.86434999999999995</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>9.1930714285714282E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3.2840142857142859E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2.9454142857142859E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2.8469571428571431E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.872157142857143E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2.9085E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.9447714285714289E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.9811285714285721E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>3.0018142857142861E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3.0379714285714291E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3.0734285714285721E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>3.108642857142857E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>3.143942857142857E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>3.1800857142857138E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>3.2112000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>3.2472571428571427E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>3.2827285714285712E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>3.318814285714286E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>3.3543428571428571E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>3.3904142857142848E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>3.4264857142857152E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>3.4625428571428571E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>3.4986000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>3.5346142857142847E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>3.5662428571428567E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>3.6021714285714289E-2</c:v>
+                  <c:v>8.3521142857142863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1183,7 +637,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6FD0-2E4D-B3B2-A8A8F2C3CBC5}"/>
+              <c16:uniqueId val="{00000000-51A9-4943-8FB8-A542458EB454}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1305,6 +759,773 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:t>6_c1_dan70_th2.0</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'6_c1_dan70_th2.0'!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7499999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7500000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.225E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.525E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.575E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.925E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.975E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'6_c1_dan70_th2.0'!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.15215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3043</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4564571428571429</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6086</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7607571428571429</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9128999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0650571428571425</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2172000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.36935714285714</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.5215</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.67365714285714</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.825799999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.978</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.130142857142861</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.28228571428571</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.434428571428569</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.586571428571428</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.738714285714291</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.89085714285714</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.042999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.195142857142859</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25.347285714285711</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26.49942857142857</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27.65157142857143</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.803714285714289</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29.955857142857141</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31.108000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.26014285714286</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33.412285714285723</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34.564571428571433</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35.716714285714289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36.868857142857138</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38.020999999999987</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39.173142857142857</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40.325285714285712</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41.477428571428582</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42.629571428571431</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43.78171428571428</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44.933857142857143</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46.085999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47.238142857142861</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48.390285714285717</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49.542428571428573</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50.694571428571429</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51.846428571428568</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52.998142857142852</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>54.149571428571427</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>55.301571428571428</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>56.453714285714291</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>57.60585714285714</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>58.758000000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>59.910142857142858</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>61.062285714285707</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>62.214285714285722</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>63.366428571428557</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>64.518571428571434</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>65.670714285714283</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>66.822857142857146</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>67.974999999999994</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>69.12700000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>70.279142857142858</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71.431285714285707</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16.353999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16.61814285714286</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16.864571428571431</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17.065857142857141</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.962714285714291</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>15.09414285714286</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10.692257142857139</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.3109428571428579</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.340357142857143</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.524885714285714</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.6790428571428571</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.86434999999999995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.1930714285714282E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.2840142857142859E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.9454142857142859E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.8469571428571431E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.872157142857143E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.9085E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.9447714285714289E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.9811285714285721E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.0018142857142861E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.0379714285714291E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.0734285714285721E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.108642857142857E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.143942857142857E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.1800857142857138E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.2112000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.2472571428571427E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.2827285714285712E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.318814285714286E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.3543428571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.3904142857142848E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.4264857142857152E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.4625428571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.4986000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.5346142857142847E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.5662428571428567E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.6021714285714289E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6FD0-2E4D-B3B2-A8A8F2C3CBC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="10"/>
+        <c:axId val="20"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="20"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="20"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
               <a:t>10%</a:t>
             </a:r>
           </a:p>
@@ -1511,6 +1732,336 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>まとめ!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>young's_modulus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>まとめ!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>まとめ!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1937.9353419913421</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2817.562571428572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3270.0716190476192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3712.049142857144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4608.6019047619056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-70E5-2E40-AEA0-74CFD4D18335}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="423460160"/>
+        <c:axId val="761832895"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="423460160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="761832895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="761832895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423460160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr/>
@@ -2190,227 +2741,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9AD0-434B-A1F3-23D838D73664}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="10"/>
-        <c:axId val="20"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="10"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Strain [-]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="20"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="20"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Stress [MPa]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>10%</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'6_c1_dan70_th1.0'!$C$2:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2.5000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5000000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.75E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2499999999999998E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'6_c1_dan70_th1.0'!$D$2:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.4844842857142857</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9689685714285714</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.453457142857143</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.937942857142857</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.422414285714285</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9068999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3913857142857138</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.8758714285714282</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.3603571428571426</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BA2F-FD49-B472-61A4F0897DA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2532,7 +2862,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>6_c1_dan70_th1.41</a:t>
+              <a:t>10%</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2558,10 +2888,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'6_c1_dan70_th1.41'!$C$2:$C$101</c:f>
+              <c:f>'6_c1_dan70_th1.0'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -2588,588 +2918,42 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.2499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.7499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5000000000000009E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.749999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.4999999999999989E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.7499999999999991E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.2499999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.4999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.7500000000000017E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.025E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.0749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.175E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.225E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.4749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.525E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.55E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.575E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.6250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.6500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.6750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.7250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.7500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.7749999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.8249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.8499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.8749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.925E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.95E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.975E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.0250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.0750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.1250000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.1499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.1749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.1999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.2249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.2499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.4750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6_c1_dan70_th1.41'!$D$2:$D$101</c:f>
+              <c:f>'6_c1_dan70_th1.0'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.70438999999999996</c:v>
+                  <c:v>0.4844842857142857</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4087814285714291</c:v>
+                  <c:v>0.9689685714285714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.113171428571428</c:v>
+                  <c:v>1.453457142857143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8175571428571429</c:v>
+                  <c:v>1.937942857142857</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.521957142857143</c:v>
+                  <c:v>2.422414285714285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.226342857142857</c:v>
+                  <c:v>2.9068999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9307285714285713</c:v>
+                  <c:v>3.3913857142857138</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.635128571428571</c:v>
+                  <c:v>3.8758714285714282</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.3395142857142863</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.0438999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.7483000000000004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.4526857142857139</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.1570714285714292</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.8614714285714289</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.565857142857141</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.270242857142859</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.974642857142859</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12.679028571428571</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13.383428571428571</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14.087814285714289</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14.79214285714286</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>15.49657142857143</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>16.201000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16.905428571428569</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>17.60971428571429</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>18.314142857142858</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>19.01857142857143</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>19.722999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>20.42728571428572</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>21.131714285714281</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>21.83614285714286</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>22.540428571428571</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>23.244857142857139</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>23.949285714285711</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>24.65371428571429</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>25.358000000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>26.062428571428569</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>26.766857142857141</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>27.47128571428571</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>28.17557142857143</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>28.88</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>29.584428571428571</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>30.28885714285714</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>30.99314285714286</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>31.697571428571429</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>32.402000000000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>33.106428571428573</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>33.810714285714283</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>34.515142857142862</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>35.219571428571427</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>35.923857142857138</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>36.628285714285717</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>37.332714285714282</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>38.037142857142847</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>38.741428571428571</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>39.445857142857143</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>40.150285714285722</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>40.854714285714287</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>41.558999999999997</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>42.26342857142857</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>42.967857142857142</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>43.672285714285707</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>16.434142857142859</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>16.693999999999999</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>16.94671428571429</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>17.151142857142851</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>17.05742857142857</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>15.318714285714281</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>10.79892857142857</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6.8233571428571427</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>3.564828571428571</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.316427142857143</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.21937428571428569</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.1112955714285714</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>9.0243999999999991E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>8.4267857142857144E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>8.4776142857142855E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>8.5798428571428567E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>8.689828571428572E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>8.7997000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8.9096999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>9.0196857142857148E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>9.129642857142857E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>9.2316142857142861E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>9.3415142857142863E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>9.439471428571429E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>8.6735571428571426E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8.6520285714285716E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8.7111999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>8.8089142857142866E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>8.9066714285714291E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>8.9883571428571438E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>9.0776571428571429E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>9.1752714285714285E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>9.266400000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>9.3634428571428563E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>9.4609857142857148E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>9.5542857142857138E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>8.3099571428571439E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>4.5437142857142863E-2</c:v>
+                  <c:v>4.3603571428571426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3177,7 +2961,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E627-3B4F-9EE7-4E8F5ED07B1A}"/>
+              <c16:uniqueId val="{00000000-BA2F-FD49-B472-61A4F0897DA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3299,7 +3083,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>10%</a:t>
+              <a:t>6_c1_dan70_th1.41</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3325,10 +3109,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'6_c1_dan70_th1.41'!$C$2:$C$9</c:f>
+              <c:f>'6_c1_dan70_th1.41'!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -3352,16 +3136,292 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7499999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7500000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.225E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.525E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.575E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.925E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.975E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6_c1_dan70_th1.41'!$D$2:$D$9</c:f>
+              <c:f>'6_c1_dan70_th1.41'!$D$2:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0.70438999999999996</c:v>
                 </c:pt>
@@ -3385,6 +3445,282 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.635128571428571</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3395142857142863</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0438999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7483000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.4526857142857139</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.1570714285714292</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.8614714285714289</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.565857142857141</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.270242857142859</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.974642857142859</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.679028571428571</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.383428571428571</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.087814285714289</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.79214285714286</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.49657142857143</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.201000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.905428571428569</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.60971428571429</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18.314142857142858</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19.01857142857143</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.722999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20.42728571428572</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21.131714285714281</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21.83614285714286</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22.540428571428571</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23.244857142857139</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23.949285714285711</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24.65371428571429</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25.358000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26.062428571428569</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>26.766857142857141</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>27.47128571428571</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>28.17557142857143</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>28.88</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>29.584428571428571</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30.28885714285714</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30.99314285714286</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>31.697571428571429</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32.402000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>33.106428571428573</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>33.810714285714283</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>34.515142857142862</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>35.219571428571427</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>35.923857142857138</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>36.628285714285717</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>37.332714285714282</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>38.037142857142847</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>38.741428571428571</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>39.445857142857143</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>40.150285714285722</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>40.854714285714287</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41.558999999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42.26342857142857</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42.967857142857142</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43.672285714285707</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16.434142857142859</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16.693999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16.94671428571429</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17.151142857142851</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17.05742857142857</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>15.318714285714281</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10.79892857142857</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.8233571428571427</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.564828571428571</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.316427142857143</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.21937428571428569</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.1112955714285714</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.0243999999999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.4267857142857144E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.4776142857142855E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.5798428571428567E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.689828571428572E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.7997000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.9096999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.0196857142857148E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.129642857142857E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.2316142857142861E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.3415142857142863E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.439471428571429E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6735571428571426E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6520285714285716E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.7111999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.8089142857142866E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.9066714285714291E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.9883571428571438E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.0776571428571429E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.1752714285714285E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.266400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.3634428571428563E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.4609857142857148E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.5542857142857138E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.3099571428571439E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.5437142857142863E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3392,7 +3728,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6E58-0C49-80E4-67A74DC4F5D9}"/>
+              <c16:uniqueId val="{00000000-E627-3B4F-9EE7-4E8F5ED07B1A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3514,7 +3850,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>6_c1_dan70_th1.58</a:t>
+              <a:t>10%</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3540,10 +3876,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'6_c1_dan70_th1.58'!$C$2:$C$101</c:f>
+              <c:f>'6_c1_dan70_th1.41'!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -3567,591 +3903,39 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.7499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5000000000000009E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.749999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.4999999999999989E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.7499999999999991E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.2499999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.4999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.7500000000000017E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.025E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.0749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.175E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.225E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.4749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.525E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.55E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.575E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.6250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.6500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.6750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.7250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.7500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.7749999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.8249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.8499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.8749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.925E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.95E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.975E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.0250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.0750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.1250000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.1499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.1749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.1999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.2249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.2499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.4750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6_c1_dan70_th1.58'!$D$2:$D$101</c:f>
+              <c:f>'6_c1_dan70_th1.41'!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.81751714285714283</c:v>
+                  <c:v>0.70438999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6350285714285711</c:v>
+                  <c:v>1.4087814285714291</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4525571428571431</c:v>
+                  <c:v>2.113171428571428</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2700714285714292</c:v>
+                  <c:v>2.8175571428571429</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0875857142857139</c:v>
+                  <c:v>3.521957142857143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9051</c:v>
+                  <c:v>4.226342857142857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7226285714285714</c:v>
+                  <c:v>4.9307285714285713</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.5401428571428566</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.3576571428571418</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.1751714285714279</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.992700000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.8102142857142862</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.62772857142857</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11.44524285714286</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12.26277142857143</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13.08028571428571</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13.8978</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>14.715285714285709</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>15.532857142857139</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>16.350285714285711</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>17.167857142857141</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>17.985428571428571</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>18.802857142857139</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>19.620428571428569</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20.437999999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>21.25542857142857</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>22.073</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>22.890428571428568</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>23.707999999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>24.525571428571428</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>25.343</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>26.16057142857143</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>26.97814285714286</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>27.795571428571431</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>28.613142857142861</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>29.430571428571429</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>30.248142857142859</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>31.065714285714289</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>31.883142857142861</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>32.700714285714291</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>33.518285714285717</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>34.335714285714289</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>35.153285714285722</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>35.97071428571428</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>36.788285714285713</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>37.60585714285714</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>38.423285714285718</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>39.240857142857138</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>40.058428571428571</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>40.875857142857143</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>41.693428571428569</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>42.510857142857148</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>43.328428571428567</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44.145999999999987</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44.963428571428572</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>45.780999999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>46.598571428571432</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>47.415999999999997</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>48.23357142857143</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>49.051000000000002</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>49.868571428571428</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>50.684571428571431</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>16.412571428571429</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>16.67285714285714</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>16.924571428571429</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>17.12857142857143</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>17.036285714285711</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>15.26357142857143</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>10.68761428571429</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6.5676999999999994</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>3.3332714285714289</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.3305071428571431</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.23324857142857139</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7.413714285714286E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>6.0777571428571431E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>6.0435714285714287E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>6.0932142857142858E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>6.1723571428571433E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>6.2514857142857136E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>6.3306142857142852E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>6.3988857142857139E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>6.4774428571428566E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>6.5456E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>6.6244714285714282E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>6.6976142857142859E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>6.773685714285714E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>6.8524142857142853E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>6.9311857142857133E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>6.9728571428571431E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>7.0375428571428575E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>7.079400000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>7.0436571428571432E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>7.1099428571428577E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>7.1863999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>7.215642857142858E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>7.2834571428571429E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>7.3593285714285722E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>7.4352000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>7.5041714285714281E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>7.5775571428571428E-2</c:v>
+                  <c:v>5.635128571428571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4159,7 +3943,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0E5C-2442-B6CC-5404222F13E1}"/>
+              <c16:uniqueId val="{00000000-6E58-0C49-80E4-67A74DC4F5D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4281,7 +4065,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>10%</a:t>
+              <a:t>6_c1_dan70_th1.58</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4307,10 +4091,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'6_c1_dan70_th1.58'!$C$2:$C$9</c:f>
+              <c:f>'6_c1_dan70_th1.58'!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -4334,16 +4118,292 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7499999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7500000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.225E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.525E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.575E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.925E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.975E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6_c1_dan70_th1.58'!$D$2:$D$9</c:f>
+              <c:f>'6_c1_dan70_th1.58'!$D$2:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0.81751714285714283</c:v>
                 </c:pt>
@@ -4367,6 +4427,282 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6.5401428571428566</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3576571428571418</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.1751714285714279</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.992700000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.8102142857142862</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.62772857142857</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.44524285714286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.26277142857143</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.08028571428571</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.8978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.715285714285709</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.532857142857139</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.350285714285711</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.167857142857141</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.985428571428571</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.802857142857139</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.620428571428569</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.437999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.25542857142857</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.073</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22.890428571428568</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23.707999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24.525571428571428</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25.343</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>26.16057142857143</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26.97814285714286</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27.795571428571431</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28.613142857142861</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29.430571428571429</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30.248142857142859</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31.065714285714289</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>31.883142857142861</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32.700714285714291</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33.518285714285717</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>34.335714285714289</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>35.153285714285722</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>35.97071428571428</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>36.788285714285713</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>37.60585714285714</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>38.423285714285718</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>39.240857142857138</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>40.058428571428571</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>40.875857142857143</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41.693428571428569</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42.510857142857148</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43.328428571428567</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44.145999999999987</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44.963428571428572</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45.780999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>46.598571428571432</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>47.415999999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>48.23357142857143</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>49.051000000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>49.868571428571428</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>50.684571428571431</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16.412571428571429</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16.67285714285714</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16.924571428571429</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17.12857142857143</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17.036285714285711</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>15.26357142857143</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10.68761428571429</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.5676999999999994</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.3332714285714289</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.3305071428571431</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.23324857142857139</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.413714285714286E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.0777571428571431E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.0435714285714287E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.0932142857142858E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.1723571428571433E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.2514857142857136E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.3306142857142852E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.3988857142857139E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.4774428571428566E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.5456E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.6244714285714282E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.6976142857142859E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.773685714285714E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.8524142857142853E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.9311857142857133E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.9728571428571431E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.0375428571428575E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.079400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.0436571428571432E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.1099428571428577E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.1863999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.215642857142858E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.2834571428571429E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.3593285714285722E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.4352000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.5041714285714281E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.5775571428571428E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4374,7 +4710,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-61A7-2C4D-B606-056943B83DEF}"/>
+              <c16:uniqueId val="{00000000-0E5C-2442-B6CC-5404222F13E1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4496,7 +4832,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>6_c1_dan70_th1.73</a:t>
+              <a:t>10%</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4522,10 +4858,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'6_c1_dan70_th1.73'!$C$2:$C$105</c:f>
+              <c:f>'6_c1_dan70_th1.58'!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -4549,615 +4885,39 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.7499999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5000000000000009E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.749999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.4999999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.2500000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.4999999999999989E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.7499999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.2500000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.5000000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.7499999999999991E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.2499999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.4999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.7500000000000017E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.025E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.0749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.15E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.175E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.225E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.4749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.525E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.55E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.575E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.6250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.6500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.6750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.7250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.7500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.7749999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.8249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.8499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.8749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.925E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.95E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.975E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.0250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.0750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.1250000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.1499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.1749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.1999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.2249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.2499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.4750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.4862499999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2.4931249999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2.4956249999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2.4978750000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6_c1_dan70_th1.73'!$D$2:$D$105</c:f>
+              <c:f>'6_c1_dan70_th1.58'!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.92801285714285708</c:v>
+                  <c:v>0.81751714285714283</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8560285714285709</c:v>
+                  <c:v>1.6350285714285711</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.784042857142857</c:v>
+                  <c:v>2.4525571428571431</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7120571428571432</c:v>
+                  <c:v>3.2700714285714292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6400714285714288</c:v>
+                  <c:v>4.0875857142857139</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.568085714285715</c:v>
+                  <c:v>4.9051</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.496085714285714</c:v>
+                  <c:v>5.7226285714285714</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4241000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.3521142857142863</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.2801285714285715</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.20814285714286</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.13615714285714</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.064171428571431</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12.992185714285711</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13.920199999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14.848142857142861</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15.776285714285709</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16.70428571428571</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>17.632285714285711</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>18.560285714285719</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>19.48828571428572</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20.416285714285721</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>21.344285714285711</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>22.272285714285719</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>23.200285714285709</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24.12828571428571</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>25.05628571428571</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>25.98442857142857</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>26.91242857142857</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>27.840428571428571</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>28.768428571428569</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>29.696428571428569</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>30.62442857142857</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>31.552428571428571</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>32.480428571428583</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>33.408428571428573</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>34.336428571428577</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>35.264428571428567</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>36.192571428571434</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>37.120571428571431</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>38.048571428571428</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>38.976571428571432</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>39.90457142857143</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>40.832571428571427</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>41.760571428571417</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>42.688571428571429</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43.616571428571433</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44.544428571428583</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>45.472000000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>46.399571428571427</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>47.327571428571417</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>48.255571428571429</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>49.183571428571433</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>50.11157142857143</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>51.039571428571428</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>51.967571428571432</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>52.895428571428567</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>53.823428571428572</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>54.751428571428569</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>55.679428571428573</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>56.607428571428571</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>57.535428571428582</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>16.392857142857139</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>16.659142857142861</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>16.903857142857142</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>17.105714285714289</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>17.005857142857149</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>15.155285714285711</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>10.492785714285709</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6.4117285714285721</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>3.5047857142857151</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.599771428571428</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.34118999999999999</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>6.6320714285714288E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>6.3471857142857149E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>6.3877857142857139E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>6.471671428571428E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>6.5556714285714288E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>6.6395999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>6.7236571428571423E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>6.8076999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>6.8917428571428574E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>6.9757857142857135E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>7.0277571428571425E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>7.1101714285714282E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>7.1938142857142853E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>7.2774714285714276E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>7.3346999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>7.3576285714285719E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>7.3802714285714291E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>7.432628571428572E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>7.472100000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>7.5533142857142854E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>7.6345285714285713E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>7.4952428571428573E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>7.4702285714285721E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>7.5480428571428559E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>7.6258571428571426E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>7.7035000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>7.5989000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>7.0865714285714296E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>7.0164571428571437E-2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>6.9826857142857149E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>6.9887999999999992E-2</c:v>
+                  <c:v>6.5401428571428566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5165,7 +4925,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-876C-8D40-983A-6FFFBAB5ABB4}"/>
+              <c16:uniqueId val="{00000000-61A7-2C4D-B606-056943B83DEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5287,7 +5047,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>10%</a:t>
+              <a:t>6_c1_dan70_th1.73</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5313,10 +5073,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'6_c1_dan70_th1.73'!$C$2:$C$10</c:f>
+              <c:f>'6_c1_dan70_th1.73'!$C$2:$C$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
@@ -5343,16 +5103,301 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.4999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.7499999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2499999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.7500000000000017E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.025E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.175E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.225E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.525E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.575E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.925E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.95E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.975E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1250000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2249999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4750000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4862499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.4931249999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.4956249999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.4978750000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'6_c1_dan70_th1.73'!$D$2:$D$10</c:f>
+              <c:f>'6_c1_dan70_th1.73'!$D$2:$D$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0.92801285714285708</c:v>
                 </c:pt>
@@ -5379,6 +5424,291 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>8.3521142857142863</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2801285714285715</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.20814285714286</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.13615714285714</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.064171428571431</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.992185714285711</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.920199999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.848142857142861</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.776285714285709</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.70428571428571</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.632285714285711</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.560285714285719</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.48828571428572</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.416285714285721</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.344285714285711</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.272285714285719</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23.200285714285709</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.12828571428571</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.05628571428571</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25.98442857142857</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26.91242857142857</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27.840428571428571</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28.768428571428569</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29.696428571428569</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30.62442857142857</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31.552428571428571</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32.480428571428583</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>33.408428571428573</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>34.336428571428577</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>35.264428571428567</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>36.192571428571434</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>37.120571428571431</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>38.048571428571428</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>38.976571428571432</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>39.90457142857143</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40.832571428571427</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41.760571428571417</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42.688571428571429</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43.616571428571433</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44.544428571428583</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45.472000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>46.399571428571427</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>47.327571428571417</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>48.255571428571429</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>49.183571428571433</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>50.11157142857143</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>51.039571428571428</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>51.967571428571432</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>52.895428571428567</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>53.823428571428572</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>54.751428571428569</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>55.679428571428573</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>56.607428571428571</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>57.535428571428582</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16.392857142857139</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16.659142857142861</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16.903857142857142</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17.105714285714289</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17.005857142857149</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>15.155285714285711</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10.492785714285709</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.4117285714285721</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.5047857142857151</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.599771428571428</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.34118999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.6320714285714288E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.3471857142857149E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.3877857142857139E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.471671428571428E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.5556714285714288E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.6395999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.7236571428571423E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.8076999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.8917428571428574E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.9757857142857135E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7.0277571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.1101714285714282E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.1938142857142853E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.2774714285714276E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.3346999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.3576285714285719E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.3802714285714291E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.432628571428572E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.472100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.5533142857142854E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.6345285714285713E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.4952428571428573E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.4702285714285721E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.5480428571428559E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.6258571428571426E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.7035000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.5989000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.0865714285714296E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7.0164571428571437E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.9826857142857149E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6.9887999999999992E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5386,7 +5716,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-51A9-4943-8FB8-A542458EB454}"/>
+              <c16:uniqueId val="{00000000-876C-8D40-983A-6FFFBAB5ABB4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5485,6 +5815,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6040,6 +6410,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6073,6 +6959,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B8F618A-2C8B-6C41-8E74-E90225D2DCC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6717,7 +7641,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
